--- a/NhryService/src/main/webapp/report/template/FnbTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/FnbTemplate.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform-cbz\NhryService\src\main\webapp\report\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -32,12 +30,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -59,12 +63,20 @@
       <diagonal/>
     </border>
     <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </diagonal>
     </border>
   </borders>
@@ -78,7 +90,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +200,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,11 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -402,13 +416,19 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:1" ht="61.5" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="215" orientation="landscape" horizontalDpi="120" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="215" orientation="landscape" horizontalDpi="120" verticalDpi="180"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>